--- a/KI-Search/KI_Liste.xlsx
+++ b/KI-Search/KI_Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keski\OneDrive\Dokumente\GitHub\SearchAI\KI-Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E20EE20-98C5-4D34-A545-389E2CB3D59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AB475-8769-4BFF-8682-85D12359106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{7BF092D1-B0BE-4A43-A790-2ACD97545ECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{7BF092D1-B0BE-4A43-A790-2ACD97545ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="NLP" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D8CC09-275F-45C8-81B2-23CBFF537BEA}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D87719-4274-4D51-9954-ED7E428C41B2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/KI-Search/KI_Liste.xlsx
+++ b/KI-Search/KI_Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keski\OneDrive\Dokumente\GitHub\SearchAI\KI-Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AB475-8769-4BFF-8682-85D12359106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97140E5B-8C86-45EE-BED8-2DDC81673972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{7BF092D1-B0BE-4A43-A790-2ACD97545ECC}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
